--- a/時計.xlsx
+++ b/時計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LA_2632\Desktop\マ研\210823_8月定例会\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91914BAD-EC4D-45EC-BE0A-639D3B1A11C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A969AD-73CA-436B-8E33-5D0B37E3BAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>時計</t>
     <rPh sb="0" eb="2">
@@ -76,6 +76,32 @@
   </si>
   <si>
     <t>UNDONEには、ベルトデザインから針の色に至るまでのカスタマイズ、さらにはオリジナル文字盤の製作や、ケースバックへのオリジナル刻印、プリントまでを、一人のお客様だけのために行うことができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本ページは社内検討用の公開前ページです。
+以下のリンクにはまだ許可をいただいておりません</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケントウヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キョカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -83,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +150,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -189,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,6 +241,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,7 +527,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94071504-CCFB-41E8-874F-922B9892954E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:B16"/>
+  <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -505,64 +543,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="19.5">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="2:2" ht="51">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="19.5">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="38.25" customHeight="1">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="2:2" ht="38.25" customHeight="1">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="112.5">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="2:2" ht="112.5">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="19.5">
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="2:2" ht="19.5">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="38.25" customHeight="1">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="2:2" ht="38.25" customHeight="1">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="56.25">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="2:2" ht="56.25">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="19.5">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="2:2" ht="19.5">
+      <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="38.25" customHeight="1">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="2:2" ht="38.25" customHeight="1">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="93.75">
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="2:2" ht="93.75">
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://knot-designs.com/" xr:uid="{988F1BD5-AF42-4522-8E37-393287CAE713}"/>
-    <hyperlink ref="B8" r:id="rId2" display="https://undone.co.jp/" xr:uid="{719B016E-EA44-414A-9EDB-D516F636FBE5}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{280E8625-5180-4DC1-900A-36C721C2A661}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://knot-designs.com/" xr:uid="{988F1BD5-AF42-4522-8E37-393287CAE713}"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://undone.co.jp/" xr:uid="{719B016E-EA44-414A-9EDB-D516F636FBE5}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{280E8625-5180-4DC1-900A-36C721C2A661}"/>
     <hyperlink ref="B2" r:id="rId4" xr:uid="{296F018E-E672-4B9B-B023-3096E8E765F0}"/>
-    <hyperlink ref="B16" r:id="rId5" xr:uid="{506775AC-6276-45E9-882C-F9E9250511D4}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{506775AC-6276-45E9-882C-F9E9250511D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
